--- a/1-power-query-as-etl/wholesale-customers.xlsx
+++ b/1-power-query-as-etl/wholesale-customers.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\1-power-query-as-etl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75772B6-B8B6-49D7-9480-F7B440AD8E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513C44E-0DF9-4C2B-92C1-716D06ED3EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wholesale customers data (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="readme" sheetId="2" r:id="rId1"/>
+    <sheet name="wholesale-customers" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Channel</t>
   </si>
@@ -45,12 +46,18 @@
   <si>
     <t>Delicassen</t>
   </si>
+  <si>
+    <t>Data source/description:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archive.ics.uci.edu/ml/datasets/Wholesale+customers#  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +188,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,7 +498,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -526,11 +541,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -564,6 +581,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -883,10 +901,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B478DD-6B36-44AD-BFB1-057BD847EA4F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="  " xr:uid="{E1722714-3BF1-43F9-8074-FF756FAA71E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
